--- a/biology/Zoologie/Fanon_gulaire/Fanon_gulaire.xlsx
+++ b/biology/Zoologie/Fanon_gulaire/Fanon_gulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un fanon gulaire est une membrane de peau soutenue par l'appareil hyoïdien, situé sous la gorge, qui peut être déployé à volonté.
-On le trouve principalement sur certaines espèces de lézards tels que les iguanes[1] ou les Anolis ou encore chez le zèbre des montagnes, et généralement principalement chez les mâles.
+On le trouve principalement sur certaines espèces de lézards tels que les iguanes ou les Anolis ou encore chez le zèbre des montagnes, et généralement principalement chez les mâles.
 Ce fanon est utilisé pour donner un aspect plus imposant et impressionnant à l'animal — que ce soit pour la parade nuptiale, pour chasser un intrus du territoire, ou effrayer un prédateur.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Anolis marmoratus adulte, mâle
@@ -548,9 +562,11 @@
           <t>Autres sens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par extension ce terme, parfois seulement fanon, désigne également les plis de peau sous le menton de divers animaux comme les bovins ou les humains[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par extension ce terme, parfois seulement fanon, désigne également les plis de peau sous le menton de divers animaux comme les bovins ou les humains.
 </t>
         </is>
       </c>
